--- a/conflicts.xlsx
+++ b/conflicts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wbjc/Documents/Jakki_Dokumente/RaspiSamplePlayer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wbjc/Documents/Jakki_Dokumente/RSP/RSP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3DFEC9-3A8D-864B-B78F-3E794BDA31ED}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69D89E4-DB6A-0648-B4CB-1EFC8AF8B1D3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="14700" xr2:uid="{9C425E25-B675-FA47-820B-67817447EAF8}"/>
+    <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="14700" xr2:uid="{9C425E25-B675-FA47-820B-67817447EAF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="2" r:id="rId1"/>
@@ -87,9 +87,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -404,15 +406,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E890110B-7CE3-5948-9F7A-FBF2710AFED1}">
-  <dimension ref="A1:B272"/>
+  <dimension ref="A1:B308"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B272"/>
+      <selection activeCell="F280" sqref="F280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -2591,7 +2594,296 @@
         <v>52</v>
       </c>
     </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273" s="3">
+        <v>78</v>
+      </c>
+      <c r="B273" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274" s="3">
+        <v>79</v>
+      </c>
+      <c r="B274" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A275" s="1">
+        <v>82</v>
+      </c>
+      <c r="B275" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A276" s="1">
+        <v>83</v>
+      </c>
+      <c r="B276" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277" s="1">
+        <v>84</v>
+      </c>
+      <c r="B277" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278" s="3">
+        <v>85</v>
+      </c>
+      <c r="B278" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279" s="3">
+        <v>85</v>
+      </c>
+      <c r="B279" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A280" s="3">
+        <v>85</v>
+      </c>
+      <c r="B280" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281" s="3">
+        <v>85</v>
+      </c>
+      <c r="B281" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282" s="3">
+        <v>85</v>
+      </c>
+      <c r="B282" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283" s="3">
+        <v>85</v>
+      </c>
+      <c r="B283" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284" s="3">
+        <v>85</v>
+      </c>
+      <c r="B284" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285" s="3">
+        <v>85</v>
+      </c>
+      <c r="B285" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286" s="3">
+        <v>85</v>
+      </c>
+      <c r="B286" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A287" s="3">
+        <v>85</v>
+      </c>
+      <c r="B287" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288" s="3">
+        <v>85</v>
+      </c>
+      <c r="B288" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289" s="3">
+        <v>85</v>
+      </c>
+      <c r="B289" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290" s="3">
+        <v>85</v>
+      </c>
+      <c r="B290" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A291" s="3">
+        <v>85</v>
+      </c>
+      <c r="B291" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292" s="3">
+        <v>85</v>
+      </c>
+      <c r="B292" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A293" s="3">
+        <v>85</v>
+      </c>
+      <c r="B293" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A294" s="3">
+        <v>85</v>
+      </c>
+      <c r="B294" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A295" s="3">
+        <v>85</v>
+      </c>
+      <c r="B295" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A296" s="3">
+        <v>85</v>
+      </c>
+      <c r="B296" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A297" s="3">
+        <v>85</v>
+      </c>
+      <c r="B297" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A298" s="3">
+        <v>85</v>
+      </c>
+      <c r="B298" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A299" s="3">
+        <v>85</v>
+      </c>
+      <c r="B299" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A300" s="3">
+        <v>85</v>
+      </c>
+      <c r="B300" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A301" s="3">
+        <v>85</v>
+      </c>
+      <c r="B301" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A302" s="3">
+        <v>85</v>
+      </c>
+      <c r="B302" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A303" s="3">
+        <v>85</v>
+      </c>
+      <c r="B303" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A304" s="3">
+        <v>85</v>
+      </c>
+      <c r="B304" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A305" s="3">
+        <v>85</v>
+      </c>
+      <c r="B305" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306" s="3">
+        <v>85</v>
+      </c>
+      <c r="B306" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307" s="3">
+        <v>85</v>
+      </c>
+      <c r="B307" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308" s="3">
+        <v>85</v>
+      </c>
+      <c r="B308" s="2">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/conflicts.xlsx
+++ b/conflicts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wbjc/Documents/Jakki_Dokumente/RSP/RSP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69D89E4-DB6A-0648-B4CB-1EFC8AF8B1D3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC60047-104A-5E49-87B3-D7805CC9BE84}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="14700" xr2:uid="{9C425E25-B675-FA47-820B-67817447EAF8}"/>
+    <workbookView xWindow="580" yWindow="1280" windowWidth="25020" windowHeight="14700" xr2:uid="{9C425E25-B675-FA47-820B-67817447EAF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="2" r:id="rId1"/>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E890110B-7CE3-5948-9F7A-FBF2710AFED1}">
-  <dimension ref="A1:B308"/>
+  <dimension ref="A1:B329"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F280" sqref="F280"/>
+      <selection activeCell="B330" sqref="B330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2882,6 +2882,174 @@
         <v>64</v>
       </c>
     </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309" s="3">
+        <v>86</v>
+      </c>
+      <c r="B309" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310" s="3">
+        <v>86</v>
+      </c>
+      <c r="B310" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311" s="3">
+        <v>86</v>
+      </c>
+      <c r="B311" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312" s="3">
+        <v>87</v>
+      </c>
+      <c r="B312" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A313" s="3">
+        <v>87</v>
+      </c>
+      <c r="B313" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A314" s="3">
+        <v>87</v>
+      </c>
+      <c r="B314" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A315" s="3">
+        <v>87</v>
+      </c>
+      <c r="B315" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A316" s="3">
+        <v>87</v>
+      </c>
+      <c r="B316" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A317" s="3">
+        <v>87</v>
+      </c>
+      <c r="B317" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A318" s="3">
+        <v>87</v>
+      </c>
+      <c r="B318" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A319" s="3">
+        <v>87</v>
+      </c>
+      <c r="B319" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A320" s="3">
+        <v>87</v>
+      </c>
+      <c r="B320" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A321" s="3">
+        <v>88</v>
+      </c>
+      <c r="B321" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A322" s="3">
+        <v>88</v>
+      </c>
+      <c r="B322" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A323" s="3">
+        <v>88</v>
+      </c>
+      <c r="B323" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A324" s="3">
+        <v>88</v>
+      </c>
+      <c r="B324" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A325" s="3">
+        <v>88</v>
+      </c>
+      <c r="B325" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A326" s="3">
+        <v>88</v>
+      </c>
+      <c r="B326" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A327" s="3">
+        <v>88</v>
+      </c>
+      <c r="B327" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A328" s="3">
+        <v>88</v>
+      </c>
+      <c r="B328" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A329" s="3">
+        <v>88</v>
+      </c>
+      <c r="B329" s="3">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/conflicts.xlsx
+++ b/conflicts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wbjc/Documents/Jakki_Dokumente/RSP/RSP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC60047-104A-5E49-87B3-D7805CC9BE84}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F936B3F7-0BAF-4A40-A8AE-120FFCBB7118}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="1280" windowWidth="25020" windowHeight="14700" xr2:uid="{9C425E25-B675-FA47-820B-67817447EAF8}"/>
+    <workbookView xWindow="19300" yWindow="1220" windowWidth="21360" windowHeight="14700" xr2:uid="{9C425E25-B675-FA47-820B-67817447EAF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="2" r:id="rId1"/>
@@ -60,7 +60,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -83,15 +83,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -406,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E890110B-7CE3-5948-9F7A-FBF2710AFED1}">
-  <dimension ref="A1:B329"/>
+  <dimension ref="A1:B351"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B330" sqref="B330"/>
+    <sheetView tabSelected="1" topLeftCell="A326" workbookViewId="0">
+      <selection activeCell="A351" sqref="A351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3050,6 +3062,182 @@
         <v>70</v>
       </c>
     </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A330" s="4">
+        <v>89</v>
+      </c>
+      <c r="B330" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A331" s="4">
+        <v>89</v>
+      </c>
+      <c r="B331" s="4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A332" s="4">
+        <v>89</v>
+      </c>
+      <c r="B332" s="4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A333" s="4">
+        <v>89</v>
+      </c>
+      <c r="B333" s="4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A334" s="4">
+        <v>89</v>
+      </c>
+      <c r="B334" s="4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A335" s="4">
+        <v>89</v>
+      </c>
+      <c r="B335" s="4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A336" s="4">
+        <v>89</v>
+      </c>
+      <c r="B336" s="4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A337" s="4">
+        <v>143</v>
+      </c>
+      <c r="B337" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A338" s="4">
+        <v>143</v>
+      </c>
+      <c r="B338" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A339" s="4">
+        <v>143</v>
+      </c>
+      <c r="B339" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A340" s="4">
+        <v>143</v>
+      </c>
+      <c r="B340" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A341" s="4">
+        <v>143</v>
+      </c>
+      <c r="B341" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A342" s="4">
+        <v>193</v>
+      </c>
+      <c r="B342" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A343" s="4">
+        <v>202</v>
+      </c>
+      <c r="B343" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A344" s="4">
+        <v>202</v>
+      </c>
+      <c r="B344" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A345" s="4">
+        <v>202</v>
+      </c>
+      <c r="B345" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A346" s="4">
+        <v>202</v>
+      </c>
+      <c r="B346" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A347" s="4">
+        <v>202</v>
+      </c>
+      <c r="B347" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A348" s="4">
+        <v>202</v>
+      </c>
+      <c r="B348" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A349" s="4">
+        <v>202</v>
+      </c>
+      <c r="B349" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A350" s="4">
+        <v>202</v>
+      </c>
+      <c r="B350" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A351" s="4">
+        <v>93</v>
+      </c>
+      <c r="B351" s="4">
+        <v>202</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/conflicts.xlsx
+++ b/conflicts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wbjc/Documents/Jakki_Dokumente/RSP/RSP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F936B3F7-0BAF-4A40-A8AE-120FFCBB7118}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A313A003-DBF7-6543-89ED-CC947E868B67}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19300" yWindow="1220" windowWidth="21360" windowHeight="14700" xr2:uid="{9C425E25-B675-FA47-820B-67817447EAF8}"/>
+    <workbookView xWindow="9440" yWindow="460" windowWidth="21360" windowHeight="14700" xr2:uid="{9C425E25-B675-FA47-820B-67817447EAF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="2" r:id="rId1"/>
@@ -418,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E890110B-7CE3-5948-9F7A-FBF2710AFED1}">
-  <dimension ref="A1:B351"/>
+  <dimension ref="A1:B721"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A326" workbookViewId="0">
-      <selection activeCell="A351" sqref="A351"/>
+    <sheetView tabSelected="1" topLeftCell="A692" workbookViewId="0">
+      <selection activeCell="A714" sqref="A714:A721"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3238,6 +3238,2866 @@
         <v>202</v>
       </c>
     </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A352" s="4">
+        <v>204</v>
+      </c>
+      <c r="B352" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A353" s="4">
+        <v>204</v>
+      </c>
+      <c r="B353" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A354" s="4">
+        <v>204</v>
+      </c>
+      <c r="B354" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A355" s="4">
+        <v>204</v>
+      </c>
+      <c r="B355" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A356" s="4">
+        <v>204</v>
+      </c>
+      <c r="B356" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A357" s="4">
+        <v>204</v>
+      </c>
+      <c r="B357" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A358" s="4">
+        <v>205</v>
+      </c>
+      <c r="B358" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A359" s="4">
+        <v>205</v>
+      </c>
+      <c r="B359" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A360" s="4">
+        <v>205</v>
+      </c>
+      <c r="B360" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A361" s="4">
+        <v>205</v>
+      </c>
+      <c r="B361" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A362" s="4">
+        <v>205</v>
+      </c>
+      <c r="B362" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A363" s="4">
+        <v>205</v>
+      </c>
+      <c r="B363" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A364" s="4">
+        <v>206</v>
+      </c>
+      <c r="B364" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A365" s="4">
+        <v>206</v>
+      </c>
+      <c r="B365" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A366" s="4">
+        <v>206</v>
+      </c>
+      <c r="B366" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A367" s="4">
+        <v>206</v>
+      </c>
+      <c r="B367" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A368" s="4">
+        <v>206</v>
+      </c>
+      <c r="B368" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A369" s="4">
+        <v>206</v>
+      </c>
+      <c r="B369" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A370" s="4">
+        <v>207</v>
+      </c>
+      <c r="B370" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A371" s="4">
+        <v>207</v>
+      </c>
+      <c r="B371" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A372" s="4">
+        <v>207</v>
+      </c>
+      <c r="B372" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A373" s="4">
+        <v>208</v>
+      </c>
+      <c r="B373" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A374" s="4">
+        <v>208</v>
+      </c>
+      <c r="B374" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A375" s="4">
+        <v>208</v>
+      </c>
+      <c r="B375" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A376" s="4">
+        <v>208</v>
+      </c>
+      <c r="B376" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A377" s="4">
+        <v>208</v>
+      </c>
+      <c r="B377" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A378" s="4">
+        <v>208</v>
+      </c>
+      <c r="B378" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A379" s="4">
+        <v>208</v>
+      </c>
+      <c r="B379" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A380" s="4">
+        <v>208</v>
+      </c>
+      <c r="B380" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A381" s="4">
+        <v>208</v>
+      </c>
+      <c r="B381" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A382" s="4">
+        <v>209</v>
+      </c>
+      <c r="B382" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A383" s="4">
+        <v>209</v>
+      </c>
+      <c r="B383" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A384" s="4">
+        <v>209</v>
+      </c>
+      <c r="B384" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A385" s="4">
+        <v>209</v>
+      </c>
+      <c r="B385" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A386" s="4">
+        <v>209</v>
+      </c>
+      <c r="B386" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A387" s="4">
+        <v>209</v>
+      </c>
+      <c r="B387" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A388" s="4">
+        <v>209</v>
+      </c>
+      <c r="B388" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A389" s="4">
+        <v>209</v>
+      </c>
+      <c r="B389" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A390" s="4">
+        <v>209</v>
+      </c>
+      <c r="B390" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A391" s="4">
+        <v>209</v>
+      </c>
+      <c r="B391" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A392" s="4">
+        <v>209</v>
+      </c>
+      <c r="B392" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A393" s="4">
+        <v>209</v>
+      </c>
+      <c r="B393" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A394" s="4">
+        <v>210</v>
+      </c>
+      <c r="B394" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A395" s="4">
+        <v>210</v>
+      </c>
+      <c r="B395" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A396" s="4">
+        <v>210</v>
+      </c>
+      <c r="B396" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A397" s="4">
+        <v>210</v>
+      </c>
+      <c r="B397" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A398" s="4">
+        <v>210</v>
+      </c>
+      <c r="B398" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A399" s="4">
+        <v>210</v>
+      </c>
+      <c r="B399" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A400" s="4">
+        <v>210</v>
+      </c>
+      <c r="B400" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A401" s="4">
+        <v>210</v>
+      </c>
+      <c r="B401" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A402" s="4">
+        <v>210</v>
+      </c>
+      <c r="B402" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A403" s="4">
+        <v>210</v>
+      </c>
+      <c r="B403" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A404" s="4">
+        <v>210</v>
+      </c>
+      <c r="B404" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A405" s="4">
+        <v>210</v>
+      </c>
+      <c r="B405" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A406" s="4">
+        <v>210</v>
+      </c>
+      <c r="B406" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A407" s="4">
+        <v>210</v>
+      </c>
+      <c r="B407" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A408" s="4">
+        <v>211</v>
+      </c>
+      <c r="B408" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A409" s="4">
+        <v>211</v>
+      </c>
+      <c r="B409" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A410" s="4">
+        <v>211</v>
+      </c>
+      <c r="B410" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A411" s="4">
+        <v>211</v>
+      </c>
+      <c r="B411" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A412" s="4">
+        <v>211</v>
+      </c>
+      <c r="B412" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A413" s="4">
+        <v>211</v>
+      </c>
+      <c r="B413" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A414" s="4">
+        <v>211</v>
+      </c>
+      <c r="B414" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A415" s="4">
+        <v>211</v>
+      </c>
+      <c r="B415" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A416" s="4">
+        <v>211</v>
+      </c>
+      <c r="B416" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A417" s="4">
+        <v>211</v>
+      </c>
+      <c r="B417" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A418" s="4">
+        <v>211</v>
+      </c>
+      <c r="B418" s="4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A419" s="4">
+        <v>211</v>
+      </c>
+      <c r="B419" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A420" s="4">
+        <v>211</v>
+      </c>
+      <c r="B420" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A421" s="4">
+        <v>211</v>
+      </c>
+      <c r="B421" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A422" s="4">
+        <v>211</v>
+      </c>
+      <c r="B422" s="4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A423" s="4">
+        <v>211</v>
+      </c>
+      <c r="B423" s="4">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A424" s="4">
+        <v>212</v>
+      </c>
+      <c r="B424" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A425" s="4">
+        <v>212</v>
+      </c>
+      <c r="B425" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A426" s="4">
+        <v>212</v>
+      </c>
+      <c r="B426" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A427" s="4">
+        <v>212</v>
+      </c>
+      <c r="B427" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A428" s="4">
+        <v>212</v>
+      </c>
+      <c r="B428" s="4">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A429" s="4">
+        <v>212</v>
+      </c>
+      <c r="B429" s="4">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A430" s="4">
+        <v>212</v>
+      </c>
+      <c r="B430" s="4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A431" s="4">
+        <v>212</v>
+      </c>
+      <c r="B431" s="4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A432" s="4">
+        <v>213</v>
+      </c>
+      <c r="B432" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A433" s="4">
+        <v>213</v>
+      </c>
+      <c r="B433" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A434" s="4">
+        <v>213</v>
+      </c>
+      <c r="B434" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A435" s="4">
+        <v>213</v>
+      </c>
+      <c r="B435" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A436" s="4">
+        <v>213</v>
+      </c>
+      <c r="B436" s="4">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A437" s="4">
+        <v>213</v>
+      </c>
+      <c r="B437" s="4">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A438" s="4">
+        <v>213</v>
+      </c>
+      <c r="B438" s="4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A439" s="4">
+        <v>213</v>
+      </c>
+      <c r="B439" s="4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A440" s="4">
+        <v>214</v>
+      </c>
+      <c r="B440" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A441" s="4">
+        <v>214</v>
+      </c>
+      <c r="B441" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A442" s="4">
+        <v>214</v>
+      </c>
+      <c r="B442" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A443" s="4">
+        <v>214</v>
+      </c>
+      <c r="B443" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A444" s="4">
+        <v>214</v>
+      </c>
+      <c r="B444" s="4">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A445" s="4">
+        <v>214</v>
+      </c>
+      <c r="B445" s="4">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A446" s="4">
+        <v>214</v>
+      </c>
+      <c r="B446" s="4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A447" s="4">
+        <v>214</v>
+      </c>
+      <c r="B447" s="4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A448" s="4">
+        <v>214</v>
+      </c>
+      <c r="B448" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A449" s="4">
+        <v>215</v>
+      </c>
+      <c r="B449" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A450" s="4">
+        <v>215</v>
+      </c>
+      <c r="B450" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A451" s="4">
+        <v>215</v>
+      </c>
+      <c r="B451" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A452" s="4">
+        <v>215</v>
+      </c>
+      <c r="B452" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A453" s="4">
+        <v>215</v>
+      </c>
+      <c r="B453" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A454" s="4">
+        <v>215</v>
+      </c>
+      <c r="B454" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A455" s="4">
+        <v>215</v>
+      </c>
+      <c r="B455" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A456" s="4">
+        <v>215</v>
+      </c>
+      <c r="B456" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A457" s="4">
+        <v>215</v>
+      </c>
+      <c r="B457" s="4">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A458" s="4">
+        <v>215</v>
+      </c>
+      <c r="B458" s="4">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A459" s="4">
+        <v>215</v>
+      </c>
+      <c r="B459" s="4">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A460" s="4">
+        <v>215</v>
+      </c>
+      <c r="B460" s="4">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A461" s="4">
+        <v>215</v>
+      </c>
+      <c r="B461" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A462" s="4">
+        <v>215</v>
+      </c>
+      <c r="B462" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A463" s="4">
+        <v>215</v>
+      </c>
+      <c r="B463" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A464" s="4">
+        <v>215</v>
+      </c>
+      <c r="B464" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A465" s="4">
+        <v>215</v>
+      </c>
+      <c r="B465" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A466" s="4">
+        <v>215</v>
+      </c>
+      <c r="B466" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A467" s="4">
+        <v>215</v>
+      </c>
+      <c r="B467" s="4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A468" s="4">
+        <v>215</v>
+      </c>
+      <c r="B468" s="4">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A469" s="4">
+        <v>215</v>
+      </c>
+      <c r="B469" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A470" s="4">
+        <v>215</v>
+      </c>
+      <c r="B470" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A471" s="4">
+        <v>215</v>
+      </c>
+      <c r="B471" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A472" s="4">
+        <v>215</v>
+      </c>
+      <c r="B472" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A473" s="4">
+        <v>215</v>
+      </c>
+      <c r="B473" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A474" s="4">
+        <v>215</v>
+      </c>
+      <c r="B474" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A475" s="4">
+        <v>215</v>
+      </c>
+      <c r="B475" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A476" s="4">
+        <v>215</v>
+      </c>
+      <c r="B476" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A477" s="4">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A478" s="4">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A479" s="4">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A480" s="4">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A481" s="4">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A482" s="4">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A483" s="4">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A484" s="4">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A485" s="4">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A486" s="4">
+        <v>216</v>
+      </c>
+      <c r="B486" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A487" s="4">
+        <v>216</v>
+      </c>
+      <c r="B487" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A488" s="4">
+        <v>216</v>
+      </c>
+      <c r="B488" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A489" s="4">
+        <v>216</v>
+      </c>
+      <c r="B489" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A490" s="4">
+        <v>216</v>
+      </c>
+      <c r="B490" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A491" s="4">
+        <v>216</v>
+      </c>
+      <c r="B491" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A492" s="4">
+        <v>216</v>
+      </c>
+      <c r="B492" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A493" s="4">
+        <v>216</v>
+      </c>
+      <c r="B493" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A494" s="4">
+        <v>216</v>
+      </c>
+      <c r="B494" s="4">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A495" s="4">
+        <v>216</v>
+      </c>
+      <c r="B495" s="4">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A496" s="4">
+        <v>216</v>
+      </c>
+      <c r="B496" s="4">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A497" s="4">
+        <v>216</v>
+      </c>
+      <c r="B497" s="4">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A498" s="4">
+        <v>216</v>
+      </c>
+      <c r="B498" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A499" s="4">
+        <v>216</v>
+      </c>
+      <c r="B499" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A500" s="4">
+        <v>216</v>
+      </c>
+      <c r="B500" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A501" s="4">
+        <v>216</v>
+      </c>
+      <c r="B501" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A502" s="4">
+        <v>216</v>
+      </c>
+      <c r="B502" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A503" s="4">
+        <v>216</v>
+      </c>
+      <c r="B503" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A504" s="4">
+        <v>216</v>
+      </c>
+      <c r="B504" s="4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A505" s="4">
+        <v>216</v>
+      </c>
+      <c r="B505" s="4">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A506" s="4">
+        <v>216</v>
+      </c>
+      <c r="B506" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A507" s="4">
+        <v>216</v>
+      </c>
+      <c r="B507" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A508" s="4">
+        <v>216</v>
+      </c>
+      <c r="B508" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A509" s="4">
+        <v>216</v>
+      </c>
+      <c r="B509" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A510" s="4">
+        <v>216</v>
+      </c>
+      <c r="B510" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A511" s="4">
+        <v>216</v>
+      </c>
+      <c r="B511" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A512" s="4">
+        <v>216</v>
+      </c>
+      <c r="B512" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A513" s="4">
+        <v>216</v>
+      </c>
+      <c r="B513" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A514" s="4">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A515" s="4">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A516" s="4">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A517" s="4">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A518" s="4">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A519" s="4">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A520" s="4">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A521" s="4">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A522" s="4">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A523" s="4">
+        <v>217</v>
+      </c>
+      <c r="B523">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A524" s="4">
+        <v>217</v>
+      </c>
+      <c r="B524" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A525" s="4">
+        <v>217</v>
+      </c>
+      <c r="B525" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A526" s="4">
+        <v>217</v>
+      </c>
+      <c r="B526" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A527" s="4">
+        <v>217</v>
+      </c>
+      <c r="B527" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A528" s="4">
+        <v>217</v>
+      </c>
+      <c r="B528" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A529" s="4">
+        <v>217</v>
+      </c>
+      <c r="B529" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A530" s="4">
+        <v>217</v>
+      </c>
+      <c r="B530" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A531" s="4">
+        <v>217</v>
+      </c>
+      <c r="B531" s="4">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A532" s="4">
+        <v>217</v>
+      </c>
+      <c r="B532" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A533" s="4">
+        <v>217</v>
+      </c>
+      <c r="B533" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A534" s="4">
+        <v>217</v>
+      </c>
+      <c r="B534" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A535" s="4">
+        <v>217</v>
+      </c>
+      <c r="B535" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A536" s="4">
+        <v>217</v>
+      </c>
+      <c r="B536" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A537" s="4">
+        <v>217</v>
+      </c>
+      <c r="B537" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A538" s="4">
+        <v>217</v>
+      </c>
+      <c r="B538" s="4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A539" s="4">
+        <v>217</v>
+      </c>
+      <c r="B539" s="4">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A540" s="4">
+        <v>217</v>
+      </c>
+      <c r="B540" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A541" s="4">
+        <v>217</v>
+      </c>
+      <c r="B541" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A542" s="4">
+        <v>217</v>
+      </c>
+      <c r="B542" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A543" s="4">
+        <v>217</v>
+      </c>
+      <c r="B543" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A544" s="4">
+        <v>217</v>
+      </c>
+      <c r="B544" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A545" s="4">
+        <v>217</v>
+      </c>
+      <c r="B545" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A546" s="4">
+        <v>217</v>
+      </c>
+      <c r="B546" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A547" s="4">
+        <v>217</v>
+      </c>
+      <c r="B547" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A548" s="4">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A549" s="4">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A550" s="4">
+        <v>218</v>
+      </c>
+      <c r="B550">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A551" s="4">
+        <v>218</v>
+      </c>
+      <c r="B551" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A552" s="4">
+        <v>218</v>
+      </c>
+      <c r="B552" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A553" s="4">
+        <v>218</v>
+      </c>
+      <c r="B553" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A554" s="4">
+        <v>218</v>
+      </c>
+      <c r="B554" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A555" s="4">
+        <v>218</v>
+      </c>
+      <c r="B555" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A556" s="4">
+        <v>218</v>
+      </c>
+      <c r="B556" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A557" s="4">
+        <v>219</v>
+      </c>
+      <c r="B557" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A558" s="4">
+        <v>219</v>
+      </c>
+      <c r="B558" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A559" s="4">
+        <v>219</v>
+      </c>
+      <c r="B559" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A560" s="4">
+        <v>219</v>
+      </c>
+      <c r="B560" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A561" s="4">
+        <v>219</v>
+      </c>
+      <c r="B561" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A562" s="4">
+        <v>219</v>
+      </c>
+      <c r="B562" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A563" s="4">
+        <v>219</v>
+      </c>
+      <c r="B563" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A564" s="4">
+        <v>219</v>
+      </c>
+      <c r="B564" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A565" s="4">
+        <v>219</v>
+      </c>
+      <c r="B565" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A566" s="4">
+        <v>219</v>
+      </c>
+      <c r="B566" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A567" s="4">
+        <v>219</v>
+      </c>
+      <c r="B567" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A568" s="4">
+        <v>219</v>
+      </c>
+      <c r="B568" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A569" s="4">
+        <v>219</v>
+      </c>
+      <c r="B569" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A570" s="4">
+        <v>219</v>
+      </c>
+      <c r="B570" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A571" s="4">
+        <v>219</v>
+      </c>
+      <c r="B571" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A572" s="4">
+        <v>219</v>
+      </c>
+      <c r="B572" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A573" s="4">
+        <v>219</v>
+      </c>
+      <c r="B573" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A574" s="4">
+        <v>219</v>
+      </c>
+      <c r="B574" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A575" s="4">
+        <v>219</v>
+      </c>
+      <c r="B575" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A576" s="4">
+        <v>219</v>
+      </c>
+      <c r="B576" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A577" s="4">
+        <v>219</v>
+      </c>
+      <c r="B577" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A578" s="4">
+        <v>219</v>
+      </c>
+      <c r="B578" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A579" s="4">
+        <v>219</v>
+      </c>
+      <c r="B579" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A580" s="4">
+        <v>219</v>
+      </c>
+      <c r="B580" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A581" s="4">
+        <v>219</v>
+      </c>
+      <c r="B581" s="4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A582" s="4">
+        <v>219</v>
+      </c>
+      <c r="B582" s="4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A583" s="4">
+        <v>219</v>
+      </c>
+      <c r="B583" s="4">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A584" s="4">
+        <v>219</v>
+      </c>
+      <c r="B584" s="4">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A585" s="4">
+        <v>219</v>
+      </c>
+      <c r="B585" s="4">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A586" s="4">
+        <v>219</v>
+      </c>
+      <c r="B586" s="4">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A587" s="4">
+        <v>219</v>
+      </c>
+      <c r="B587" s="4">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A588" s="4">
+        <v>219</v>
+      </c>
+      <c r="B588" s="4">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A589" s="4">
+        <v>219</v>
+      </c>
+      <c r="B589" s="4">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A590" s="4">
+        <v>219</v>
+      </c>
+      <c r="B590" s="4">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A591" s="4">
+        <v>219</v>
+      </c>
+      <c r="B591" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A592" s="4">
+        <v>219</v>
+      </c>
+      <c r="B592" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A593" s="4">
+        <v>220</v>
+      </c>
+      <c r="B593" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A594" s="4">
+        <v>220</v>
+      </c>
+      <c r="B594" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A595" s="4">
+        <v>220</v>
+      </c>
+      <c r="B595" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A596" s="4">
+        <v>220</v>
+      </c>
+      <c r="B596" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A597" s="4">
+        <v>220</v>
+      </c>
+      <c r="B597" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A598" s="4">
+        <v>220</v>
+      </c>
+      <c r="B598" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A599" s="4">
+        <v>220</v>
+      </c>
+      <c r="B599" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A600" s="4">
+        <v>220</v>
+      </c>
+      <c r="B600" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A601" s="4">
+        <v>220</v>
+      </c>
+      <c r="B601" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A602" s="4">
+        <v>220</v>
+      </c>
+      <c r="B602" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A603" s="4">
+        <v>220</v>
+      </c>
+      <c r="B603" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A604" s="4">
+        <v>220</v>
+      </c>
+      <c r="B604" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A605" s="4">
+        <v>220</v>
+      </c>
+      <c r="B605" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A606" s="4">
+        <v>220</v>
+      </c>
+      <c r="B606" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A607" s="4">
+        <v>220</v>
+      </c>
+      <c r="B607" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A608" s="4">
+        <v>220</v>
+      </c>
+      <c r="B608" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A609" s="4">
+        <v>220</v>
+      </c>
+      <c r="B609" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A610" s="4">
+        <v>220</v>
+      </c>
+      <c r="B610" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A611" s="4">
+        <v>220</v>
+      </c>
+      <c r="B611" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A612" s="4">
+        <v>220</v>
+      </c>
+      <c r="B612" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A613" s="4">
+        <v>220</v>
+      </c>
+      <c r="B613" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A614" s="4">
+        <v>220</v>
+      </c>
+      <c r="B614" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A615" s="4">
+        <v>220</v>
+      </c>
+      <c r="B615" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A616" s="4">
+        <v>220</v>
+      </c>
+      <c r="B616" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A617" s="4">
+        <v>220</v>
+      </c>
+      <c r="B617" s="4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A618" s="4">
+        <v>220</v>
+      </c>
+      <c r="B618" s="4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A619" s="4">
+        <v>220</v>
+      </c>
+      <c r="B619" s="4">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A620" s="4">
+        <v>220</v>
+      </c>
+      <c r="B620" s="4">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A621" s="4">
+        <v>220</v>
+      </c>
+      <c r="B621" s="4">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A622" s="4">
+        <v>220</v>
+      </c>
+      <c r="B622" s="4">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A623" s="4">
+        <v>220</v>
+      </c>
+      <c r="B623" s="4">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A624" s="4">
+        <v>220</v>
+      </c>
+      <c r="B624" s="4">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A625" s="4">
+        <v>220</v>
+      </c>
+      <c r="B625" s="4">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A626" s="4">
+        <v>220</v>
+      </c>
+      <c r="B626" s="4">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A627" s="4">
+        <v>220</v>
+      </c>
+      <c r="B627" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A628" s="4">
+        <v>220</v>
+      </c>
+      <c r="B628" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A629" s="4">
+        <v>221</v>
+      </c>
+      <c r="B629" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A630" s="4">
+        <v>221</v>
+      </c>
+      <c r="B630" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A631" s="4">
+        <v>221</v>
+      </c>
+      <c r="B631" s="4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A632" s="4">
+        <v>221</v>
+      </c>
+      <c r="B632" s="4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A633" s="4">
+        <v>221</v>
+      </c>
+      <c r="B633" s="4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A634" s="4">
+        <v>221</v>
+      </c>
+      <c r="B634" s="4">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A635" s="4">
+        <v>221</v>
+      </c>
+      <c r="B635" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A636" s="4">
+        <v>221</v>
+      </c>
+      <c r="B636" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A637" s="4">
+        <v>222</v>
+      </c>
+      <c r="B637" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A638" s="4">
+        <v>222</v>
+      </c>
+      <c r="B638" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A639" s="4">
+        <v>222</v>
+      </c>
+      <c r="B639" s="4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A640" s="4">
+        <v>222</v>
+      </c>
+      <c r="B640" s="4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A641" s="4">
+        <v>222</v>
+      </c>
+      <c r="B641" s="4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A642" s="4">
+        <v>222</v>
+      </c>
+      <c r="B642" s="4">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A643" s="4">
+        <v>222</v>
+      </c>
+      <c r="B643" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A644" s="4">
+        <v>222</v>
+      </c>
+      <c r="B644" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A645" s="4">
+        <v>223</v>
+      </c>
+      <c r="B645" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A646" s="4">
+        <v>223</v>
+      </c>
+      <c r="B646" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A647" s="4">
+        <v>223</v>
+      </c>
+      <c r="B647" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A648" s="4">
+        <v>223</v>
+      </c>
+      <c r="B648" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A649" s="4">
+        <v>223</v>
+      </c>
+      <c r="B649" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A650" s="4">
+        <v>223</v>
+      </c>
+      <c r="B650" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A651" s="4">
+        <v>223</v>
+      </c>
+      <c r="B651" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A652" s="4">
+        <v>223</v>
+      </c>
+      <c r="B652" s="4">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A653" s="4">
+        <v>224</v>
+      </c>
+      <c r="B653" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A654" s="4">
+        <v>224</v>
+      </c>
+      <c r="B654" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A655" s="4">
+        <v>224</v>
+      </c>
+      <c r="B655" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A656" s="4">
+        <v>224</v>
+      </c>
+      <c r="B656" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A657" s="4">
+        <v>224</v>
+      </c>
+      <c r="B657" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A658" s="4">
+        <v>224</v>
+      </c>
+      <c r="B658" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A659" s="4">
+        <v>224</v>
+      </c>
+      <c r="B659" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A660" s="4">
+        <v>224</v>
+      </c>
+      <c r="B660" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A661" s="4">
+        <v>224</v>
+      </c>
+      <c r="B661" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A662" s="4">
+        <v>224</v>
+      </c>
+      <c r="B662" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A663" s="4">
+        <v>224</v>
+      </c>
+      <c r="B663" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A664" s="4">
+        <v>224</v>
+      </c>
+      <c r="B664" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A665" s="4">
+        <v>224</v>
+      </c>
+      <c r="B665" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A666" s="4">
+        <v>224</v>
+      </c>
+      <c r="B666" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A667" s="4">
+        <v>224</v>
+      </c>
+      <c r="B667" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A668" s="4">
+        <v>224</v>
+      </c>
+      <c r="B668" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A669" s="4">
+        <v>224</v>
+      </c>
+      <c r="B669" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A670" s="4">
+        <v>224</v>
+      </c>
+      <c r="B670" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A671" s="4">
+        <v>224</v>
+      </c>
+      <c r="B671" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A672" s="4">
+        <v>224</v>
+      </c>
+      <c r="B672" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A673" s="4">
+        <v>224</v>
+      </c>
+      <c r="B673" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A674" s="4">
+        <v>224</v>
+      </c>
+      <c r="B674" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A675" s="4">
+        <v>224</v>
+      </c>
+      <c r="B675" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A676" s="4">
+        <v>224</v>
+      </c>
+      <c r="B676" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A677" s="4">
+        <v>224</v>
+      </c>
+      <c r="B677" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A678" s="4">
+        <v>224</v>
+      </c>
+      <c r="B678" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A679" s="4">
+        <v>224</v>
+      </c>
+      <c r="B679" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A680" s="4">
+        <v>224</v>
+      </c>
+      <c r="B680" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A681" s="4">
+        <v>224</v>
+      </c>
+      <c r="B681" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A682" s="4">
+        <v>224</v>
+      </c>
+      <c r="B682" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A683" s="4">
+        <v>224</v>
+      </c>
+      <c r="B683" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A684" s="4">
+        <v>224</v>
+      </c>
+      <c r="B684" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A685" s="4">
+        <v>224</v>
+      </c>
+      <c r="B685" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A686" s="4">
+        <v>224</v>
+      </c>
+      <c r="B686" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A687" s="4">
+        <v>224</v>
+      </c>
+      <c r="B687" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A688" s="4">
+        <v>224</v>
+      </c>
+      <c r="B688" s="4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A689" s="4">
+        <v>224</v>
+      </c>
+      <c r="B689" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A690" s="4">
+        <v>224</v>
+      </c>
+      <c r="B690" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A691" s="4">
+        <v>224</v>
+      </c>
+      <c r="B691" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A692" s="4">
+        <v>224</v>
+      </c>
+      <c r="B692" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A693" s="4">
+        <v>224</v>
+      </c>
+      <c r="B693" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A694" s="4">
+        <v>224</v>
+      </c>
+      <c r="B694" s="4">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A695" s="4">
+        <v>224</v>
+      </c>
+      <c r="B695" s="4">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A696" s="4">
+        <v>224</v>
+      </c>
+      <c r="B696" s="4">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A697" s="4">
+        <v>224</v>
+      </c>
+      <c r="B697" s="4">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A698" s="4">
+        <v>224</v>
+      </c>
+      <c r="B698" s="4">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A699" s="4">
+        <v>224</v>
+      </c>
+      <c r="B699" s="4">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A700" s="4">
+        <v>224</v>
+      </c>
+      <c r="B700" s="4">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A701" s="4">
+        <v>224</v>
+      </c>
+      <c r="B701" s="4">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A702" s="4">
+        <v>224</v>
+      </c>
+      <c r="B702" s="4">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A703" s="4">
+        <v>224</v>
+      </c>
+      <c r="B703" s="4">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A704" s="4">
+        <v>224</v>
+      </c>
+      <c r="B704" s="4">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A705" s="4">
+        <v>224</v>
+      </c>
+      <c r="B705" s="4">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A706" s="4">
+        <v>224</v>
+      </c>
+      <c r="B706" s="4">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A707" s="4">
+        <v>224</v>
+      </c>
+      <c r="B707" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A708" s="4">
+        <v>224</v>
+      </c>
+      <c r="B708" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A709" s="4">
+        <v>224</v>
+      </c>
+      <c r="B709" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A710" s="4">
+        <v>224</v>
+      </c>
+      <c r="B710" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A711" s="4">
+        <v>224</v>
+      </c>
+      <c r="B711" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A712" s="4">
+        <v>224</v>
+      </c>
+      <c r="B712" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A713" s="4">
+        <v>224</v>
+      </c>
+      <c r="B713" s="4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A714" s="4"/>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A715" s="4"/>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A716" s="4"/>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A717" s="4"/>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A718" s="4"/>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A719" s="4"/>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A720" s="4"/>
+    </row>
+    <row r="721" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A721" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
